--- a/report/No3_テスト結果.xlsx
+++ b/report/No3_テスト結果.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何も入力せずに検索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録されているすべての情報が出力</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,19 +84,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースに登録されている料金名を入れて検索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索結果として登録されている料金名(基本料金)を含む情報が出力</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースに登録されていない料金名を入れて検索</t>
+    <t>検索結果として何も出力されない</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索結果として何も出力されない</t>
+    <t>料金名に何も入力せずに検索</t>
+    <rPh sb="0" eb="3">
+      <t>リョウキンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金名にデータベースに登録されている料金名を入れて検索</t>
+    <rPh sb="0" eb="3">
+      <t>リョウキンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金名にデータベースに登録されていない料金名を入れて検索</t>
+    <rPh sb="0" eb="3">
+      <t>リョウキンメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1023,7 +1032,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1120,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,10 +1132,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1150,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1153,10 +1162,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1180,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,10 +1192,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1197,18 +1206,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,6 +1379,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1381,14 +1398,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
